--- a/fsdviz/tests/xls_files/missing_two_fields.xlsx
+++ b/fsdviz/tests/xls_files/missing_two_fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COTTRILLAD\1work\LakeTrout\Stocking\GLFSD_Datavis\fsdviz\fsdviz\tests\xls_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1work\fsdviz\fsdviz\tests\xls_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A9CAB7-4F1F-4940-A65A-5D67E6D0CDA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC7CDA6-18B9-4B5B-8960-832ADFDC0C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B75592B0-B996-4C91-8D85-EEB976D88E37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B75592B0-B996-4C91-8D85-EEB976D88E37}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>Enter\paste your data below:</t>
   </si>
   <si>
-    <t>OMNR</t>
-  </si>
-  <si>
     <t>HU</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Chatsworth</t>
+  </si>
+  <si>
+    <t>MNRF</t>
   </si>
 </sst>
 </file>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4BD917-88B4-41AD-94D6-751B8B921A3A}">
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1314,26 +1314,26 @@
         <v>42701</v>
       </c>
       <c r="C10" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="E10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="F10" s="56" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>55</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="55">
         <v>1128</v>
       </c>
       <c r="I10" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="56" t="s">
         <v>56</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>57</v>
       </c>
       <c r="K10" s="55">
         <v>44.566400000000002</v>
@@ -1357,13 +1357,13 @@
         <v>45</v>
       </c>
       <c r="R10" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S10" s="55">
         <v>16</v>
       </c>
       <c r="T10" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U10" s="57"/>
       <c r="V10" s="56"/>
@@ -1381,7 +1381,7 @@
         <v>380</v>
       </c>
       <c r="AD10" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE10" s="55">
         <v>30747</v>
